--- a/2018Registration.xlsx
+++ b/2018Registration.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11550" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10680" windowHeight="6795" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>Name of School:</t>
   </si>
@@ -202,15 +202,17 @@
   </si>
   <si>
     <t>Swimming Relay 4 x 100 IM (Team of 4)</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
@@ -633,10 +635,76 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -690,74 +758,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1215,8 +1217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,22 +1231,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="59"/>
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1264,92 +1266,92 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="59"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="62"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="57" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="59"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30"/>
     </row>
     <row r="7" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="40" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="41"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="42"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="55" t="s">
+      <c r="B9" s="37"/>
+      <c r="C9" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="40" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="53"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="44"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="30"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="41"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="6">
         <v>60</v>
       </c>
@@ -1360,10 +1362,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="41"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="6">
         <v>60</v>
       </c>
@@ -1374,19 +1376,19 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="47"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="44"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="41"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="6">
         <v>10</v>
       </c>
@@ -1397,10 +1399,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="41"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="6">
         <v>45</v>
       </c>
@@ -1411,10 +1413,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="41"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="6">
         <v>30</v>
       </c>
@@ -1425,19 +1427,19 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="47"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="41"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="8">
         <v>50</v>
       </c>
@@ -1448,10 +1450,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="41"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="8">
         <v>40</v>
       </c>
@@ -1462,10 +1464,10 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="41"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="8">
         <v>20</v>
       </c>
@@ -1476,10 +1478,10 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="41"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="8">
         <v>20</v>
       </c>
@@ -1490,19 +1492,19 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="44"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="30"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="41"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="6">
         <v>40</v>
       </c>
@@ -1513,19 +1515,19 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="44"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="30"/>
     </row>
     <row r="26" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="41"/>
+      <c r="B26" s="35"/>
       <c r="C26" s="6">
         <v>40</v>
       </c>
@@ -1536,10 +1538,10 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="41"/>
+      <c r="B27" s="35"/>
       <c r="C27" s="6">
         <v>25</v>
       </c>
@@ -1550,10 +1552,10 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="41"/>
+      <c r="B28" s="35"/>
       <c r="C28" s="6">
         <v>25</v>
       </c>
@@ -1564,10 +1566,10 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="41"/>
+      <c r="B29" s="35"/>
       <c r="C29" s="6">
         <v>25</v>
       </c>
@@ -1578,10 +1580,10 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="41"/>
+      <c r="B30" s="35"/>
       <c r="C30" s="6">
         <v>15</v>
       </c>
@@ -1592,10 +1594,10 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="41"/>
+      <c r="B31" s="35"/>
       <c r="C31" s="6">
         <v>25</v>
       </c>
@@ -1606,10 +1608,10 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="41"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="6">
         <v>25</v>
       </c>
@@ -1620,10 +1622,10 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="41"/>
+      <c r="B33" s="35"/>
       <c r="C33" s="6">
         <v>25</v>
       </c>
@@ -1634,10 +1636,10 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="41"/>
+      <c r="B34" s="35"/>
       <c r="C34" s="6">
         <v>25</v>
       </c>
@@ -1648,10 +1650,10 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="30"/>
+      <c r="B35" s="52"/>
       <c r="C35" s="9">
         <v>10</v>
       </c>
@@ -1661,20 +1663,20 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="31"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="33"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="55"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="35"/>
-      <c r="E37" s="22">
+      <c r="D37" s="57"/>
+      <c r="E37" s="21">
         <f>SUM(E12:E35)</f>
         <v>10</v>
       </c>
@@ -1682,10 +1684,10 @@
     <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="37"/>
+      <c r="D38" s="59"/>
       <c r="E38" s="19">
         <f>B56</f>
         <v>0</v>
@@ -1694,53 +1696,52 @@
     <row r="39" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="37"/>
-      <c r="E39" s="19">
-        <f ca="1">IF(TODAY()&lt;=1/1/2018,0,(E37+E38)/10)</f>
-        <v>1</v>
+      <c r="D39" s="59"/>
+      <c r="E39" s="19" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="38" t="s">
+      <c r="C40" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="39"/>
-      <c r="E40" s="21">
-        <f ca="1">E37+E38-E39</f>
-        <v>9</v>
+      <c r="D40" s="61"/>
+      <c r="E40" s="62">
+        <f>E37+E38</f>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="25"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="47"/>
     </row>
     <row r="42" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="26" t="s">
+      <c r="A42" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="28"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="50"/>
     </row>
     <row r="43" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="26" t="s">
+      <c r="A43" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="28"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="50"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
@@ -1797,20 +1798,27 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A12:B12"/>
@@ -1823,27 +1831,20 @@
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
